--- a/Rung005.xlsx
+++ b/Rung005.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/jc_aristizabald_uniandes_edu_co/Documents/H0LICOW/Lenstronomy/Simulaciones/Data R0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\OneDrive\OneDrive - Universidad de Los Andes\H0LICOW\Lenstronomy\Simulaciones\Data R0\GitHubRung0\rung0_lenstronomy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="8_{1E215EB0-68C5-4C6E-A496-D0189719AC50}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{C050D408-C72B-4536-926F-A44261A4E590}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="8_{1E215EB0-68C5-4C6E-A496-D0189719AC50}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{C2DA5E38-27AF-4E50-8C57-6F92D380220A}"/>
   <bookViews>
-    <workbookView xWindow="44925" yWindow="9015" windowWidth="21600" windowHeight="11385" xr2:uid="{542FAF60-B0E6-4600-9DD2-E51EB584981C}"/>
+    <workbookView xWindow="36000" yWindow="2820" windowWidth="21600" windowHeight="11385" xr2:uid="{542FAF60-B0E6-4600-9DD2-E51EB584981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -586,7 +586,7 @@
   <dimension ref="A2:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,10 +698,10 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>49.5</v>
+        <v>49</v>
       </c>
       <c r="C12">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -731,23 +731,23 @@
       </c>
       <c r="D13">
         <f t="shared" ref="D13:D16" si="0">B13-$B$12</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E13">
         <f>C13-$C$12</f>
-        <v>-13.625</v>
+        <v>-12.625</v>
       </c>
       <c r="F13">
-        <f>D13*$E$11</f>
-        <v>0.08</v>
+        <f t="shared" ref="F13:G16" si="1">D13*$E$11</f>
+        <v>0.12</v>
       </c>
       <c r="G13">
-        <f>E13*$E$11</f>
-        <v>-1.0900000000000001</v>
+        <f t="shared" si="1"/>
+        <v>-1.01</v>
       </c>
       <c r="H13">
         <f>(F13*F13+G13*G13)^0.5</f>
-        <v>1.092931836849856</v>
+        <v>1.0171037311896953</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -762,23 +762,23 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>-14</v>
+        <v>-13.5</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:E16" si="1">C14-$C$12</f>
-        <v>-3.5</v>
+        <f t="shared" ref="E14:E15" si="2">C14-$C$12</f>
+        <v>-2.5</v>
       </c>
       <c r="F14">
-        <f>D14*$E$11</f>
-        <v>-1.1200000000000001</v>
+        <f t="shared" si="1"/>
+        <v>-1.08</v>
       </c>
       <c r="G14">
-        <f>E14*$E$11</f>
-        <v>-0.28000000000000003</v>
+        <f t="shared" si="1"/>
+        <v>-0.2</v>
       </c>
       <c r="H14">
-        <f t="shared" ref="H14:H16" si="2">(F14*F14+G14*G14)^0.5</f>
-        <v>1.154469575172945</v>
+        <f t="shared" ref="H14:H16" si="3">(F14*F14+G14*G14)^0.5</f>
+        <v>1.0983624174196784</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -793,27 +793,27 @@
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="E15">
+        <f t="shared" si="2"/>
+        <v>3.625</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="1"/>
-        <v>2.625</v>
-      </c>
-      <c r="F15">
-        <f>D15*$E$11</f>
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="G15">
-        <f>E15*$E$11</f>
-        <v>0.21</v>
+        <f t="shared" si="1"/>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
-        <v>1.2576565508913791</v>
+        <f t="shared" si="3"/>
+        <v>1.3124404748406688</v>
       </c>
       <c r="I15">
         <f>(H14+H15)/2</f>
-        <v>1.206063063032162</v>
+        <v>1.2054014461301736</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -828,29 +828,29 @@
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>-3.125</v>
+        <v>-2.625</v>
       </c>
       <c r="E16">
         <f>C16-$C$12</f>
-        <v>13.375</v>
+        <v>14.375</v>
       </c>
       <c r="F16">
-        <f>D16*$E$11</f>
-        <v>-0.25</v>
+        <f t="shared" si="1"/>
+        <v>-0.21</v>
       </c>
       <c r="G16">
-        <f>E16*$E$11</f>
-        <v>1.07</v>
+        <f t="shared" si="1"/>
+        <v>1.1500000000000001</v>
       </c>
       <c r="H16">
-        <f t="shared" si="2"/>
-        <v>1.0988175462741756</v>
+        <f t="shared" si="3"/>
+        <v>1.169016680804855</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H17">
         <f>AVERAGE(H13:H16)</f>
-        <v>1.150968877297089</v>
+        <v>1.1492308260637245</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -956,39 +956,39 @@
       </c>
       <c r="B25" s="2">
         <f>ACOS(F13/H13)</f>
-        <v>1.497533193055657</v>
+        <v>1.4525388176558172</v>
       </c>
       <c r="C25" s="2">
         <f>ASIN(G13/H13)</f>
-        <v>-1.4975331930556579</v>
+        <v>-1.4525388176558167</v>
       </c>
       <c r="D25">
         <f>H13</f>
-        <v>1.092931836849856</v>
+        <v>1.0171037311896953</v>
       </c>
       <c r="E25" s="3">
         <f>D25*COS($B$25)</f>
-        <v>8.0000000000000154E-2</v>
+        <v>0.12000000000000004</v>
       </c>
       <c r="F25" s="4">
         <f>D25*SIN(B25)</f>
-        <v>1.0900000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="G25" s="9">
         <f>D25*COS(C25)</f>
-        <v>7.9999999999999197E-2</v>
+        <v>0.12000000000000048</v>
       </c>
       <c r="H25" s="10">
         <f>D25*SIN(C25)</f>
-        <v>-1.0900000000000001</v>
+        <v>-1.01</v>
       </c>
       <c r="I25">
         <f>C25</f>
-        <v>-1.4975331930556579</v>
+        <v>-1.4525388176558167</v>
       </c>
       <c r="J25">
         <f>I25+PI()</f>
-        <v>1.6440594605341352</v>
+        <v>1.6890538359339764</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -997,35 +997,35 @@
       </c>
       <c r="B26" s="2">
         <f>-ACOS(F14/H14)+2*PI()</f>
-        <v>3.3865713167166573</v>
+        <v>3.3247034708522758</v>
       </c>
       <c r="C26" s="2">
         <f>ASIN(G14/H14)</f>
-        <v>-0.2449786631268642</v>
+        <v>-0.18311081726248415</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="D26:D28" si="3">H14</f>
-        <v>1.154469575172945</v>
+        <f t="shared" ref="D26:D28" si="4">H14</f>
+        <v>1.0983624174196784</v>
       </c>
       <c r="E26" s="5">
         <f>D26*COS(B26)</f>
-        <v>-1.1200000000000001</v>
+        <v>-1.0800000000000003</v>
       </c>
       <c r="F26" s="6">
         <f>D26*SIN(B26)</f>
-        <v>-0.27999999999999997</v>
+        <v>-0.19999999999999829</v>
       </c>
       <c r="G26" s="5">
         <f>D26*COS(C26)</f>
-        <v>1.1200000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" ref="H26:H28" si="4">D26*SIN(C26)</f>
-        <v>-0.28000000000000008</v>
+        <f t="shared" ref="H26:H28" si="5">D26*SIN(C26)</f>
+        <v>-0.20000000000000004</v>
       </c>
       <c r="I26">
         <f>B26</f>
-        <v>3.3865713167166573</v>
+        <v>3.3247034708522758</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1033,40 +1033,40 @@
         <v>6</v>
       </c>
       <c r="B27" s="2">
-        <f t="shared" ref="B27:B28" si="5">ACOS(F15/H15)</f>
-        <v>0.16776305054321083</v>
+        <f t="shared" ref="B27:B28" si="6">ACOS(F15/H15)</f>
+        <v>0.2228011537593948</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" ref="C27:C28" si="6">ASIN(G15/H15)</f>
-        <v>0.16776305054321075</v>
+        <f t="shared" ref="C27:C28" si="7">ASIN(G15/H15)</f>
+        <v>0.22280115375939449</v>
       </c>
       <c r="D27">
-        <f t="shared" si="3"/>
-        <v>1.2576565508913791</v>
+        <f t="shared" si="4"/>
+        <v>1.3124404748406688</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" ref="E27:E28" si="7">D27*COS(B27)</f>
-        <v>1.24</v>
+        <f t="shared" ref="E27:E28" si="8">D27*COS(B27)</f>
+        <v>1.28</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" ref="F27:F28" si="8">D27*SIN(B27)</f>
-        <v>0.2100000000000001</v>
+        <f t="shared" ref="F27:F28" si="9">D27*SIN(B27)</f>
+        <v>0.29000000000000037</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" ref="G27:G28" si="9">D27*COS(C27)</f>
-        <v>1.24</v>
+        <f t="shared" ref="G27:G28" si="10">D27*COS(C27)</f>
+        <v>1.2800000000000002</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="4"/>
-        <v>0.21</v>
+        <f t="shared" si="5"/>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I27">
         <f>B27</f>
-        <v>0.16776305054321083</v>
+        <v>0.2228011537593948</v>
       </c>
       <c r="J27">
         <f>I27+PI()</f>
-        <v>3.309355704133004</v>
+        <v>3.3643938073491881</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1074,36 +1074,36 @@
         <v>7</v>
       </c>
       <c r="B28" s="2">
+        <f t="shared" si="6"/>
+        <v>1.7514149373791641</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="7"/>
+        <v>1.3901777162106292</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="4"/>
+        <v>1.169016680804855</v>
+      </c>
+      <c r="E28" s="7">
+        <f t="shared" si="8"/>
+        <v>-0.21000000000000002</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" si="9"/>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="10"/>
+        <v>0.20999999999999991</v>
+      </c>
+      <c r="H28" s="8">
         <f t="shared" si="5"/>
-        <v>1.8003236810381869</v>
-      </c>
-      <c r="C28" s="2">
-        <f t="shared" si="6"/>
-        <v>1.3412689725516063</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="3"/>
-        <v>1.0988175462741756</v>
-      </c>
-      <c r="E28" s="7">
-        <f t="shared" si="7"/>
-        <v>-0.24999999999999981</v>
-      </c>
-      <c r="F28" s="8">
-        <f t="shared" si="8"/>
-        <v>1.07</v>
-      </c>
-      <c r="G28" s="7">
-        <f t="shared" si="9"/>
-        <v>0.24999999999999997</v>
-      </c>
-      <c r="H28" s="8">
-        <f t="shared" si="4"/>
-        <v>1.07</v>
+        <v>1.1500000000000001</v>
       </c>
       <c r="I28">
         <f>B28</f>
-        <v>1.8003236810381869</v>
+        <v>1.7514149373791641</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="B31">
         <f>I15</f>
-        <v>1.206063063032162</v>
+        <v>1.2054014461301736</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="B32">
         <f>H13</f>
-        <v>1.092931836849856</v>
+        <v>1.0171037311896953</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="B33">
         <f>(B31-B32)/B31</f>
-        <v>9.3802081872802714E-2</v>
+        <v>0.15621162189989912</v>
       </c>
     </row>
   </sheetData>
@@ -1368,18 +1368,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1402,18 +1402,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1639AC2F-2AFF-4E4D-9935-2392485DAD8F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D77EF09-95DC-47BC-954A-B53018301CC1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1639AC2F-2AFF-4E4D-9935-2392485DAD8F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>